--- a/LubanFiles/MyTest/datas/Configs/TestInfo.xlsx
+++ b/LubanFiles/MyTest/datas/Configs/TestInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SelfCode\LubanFiles\MyTest\datas\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D0FD0-B75D-4EBA-BF3C-DF9EF707D79C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3B6CBF-DAF2-42A9-952F-16A4F49F2B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
